--- a/resources/actual.xlsx
+++ b/resources/actual.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD77FED9-1805-4CA6-AE50-CA98E3BAFD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D917B02-854F-450A-B6FE-3F28EE3C62DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -639,7 +639,7 @@
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="105">
       <c r="A4" s="4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>144</v>
       </c>
       <c r="F31" s="4">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
